--- a/coles_data.xlsx
+++ b/coles_data.xlsx
@@ -6948,7 +6948,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Bounty Milk Chocolate Bar With Coconut | 56g</t>
+          <t>Mars Raspberry Smash Flavoured Chocolate Bar | 47g</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -6963,14 +6963,14 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>$2.23 per 100g</t>
+          <t>$2.66 per 100g</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Twix Milk Chocolate Bar with Caramel Biscuit | 50g</t>
+          <t>Mars Chocolate Bar with Nougat &amp; Caramel | 47g</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -6985,14 +6985,14 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>$2.50 per 100g</t>
+          <t>$2.66 per 100g</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Snickers Chocolate Bar Peanuts Caramel Nougat | 44g</t>
+          <t>Bounty Milk Chocolate Bar With Coconut | 56g</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -7007,14 +7007,14 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>$2.84 per 100g</t>
+          <t>$2.23 per 100g</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Mars Chocolate Bar with Nougat &amp; Caramel | 47g</t>
+          <t>Twix Milk Chocolate Bar with Caramel Biscuit | 50g</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>$2.66 per 100g</t>
+          <t>$2.50 per 100g</t>
         </is>
       </c>
     </row>
@@ -7058,7 +7058,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Mars Raspberry Smash Flavoured Chocolate Bar | 47g</t>
+          <t>Snickers Chocolate Bar Peanuts Caramel Nougat | 44g</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>$2.66 per 100g</t>
+          <t>$2.84 per 100g</t>
         </is>
       </c>
     </row>
@@ -26484,7 +26484,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>Bounty Milk Chocolate Bar With Coconut | 56g</t>
+          <t>Mars Chocolate Bar with Nougat &amp; Caramel | 47g</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
@@ -26499,14 +26499,14 @@
       </c>
       <c r="D1185" t="inlineStr">
         <is>
-          <t>$2.23 per 100g</t>
+          <t>$2.66 per 100g</t>
         </is>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Twix Milk Chocolate Bar with Caramel Biscuit | 50g</t>
+          <t>Mars Raspberry Smash Flavoured Chocolate Bar | 47g</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
@@ -26521,14 +26521,14 @@
       </c>
       <c r="D1186" t="inlineStr">
         <is>
-          <t>$2.50 per 100g</t>
+          <t>$2.66 per 100g</t>
         </is>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>Snickers Chocolate Bar Peanuts Caramel Nougat | 44g</t>
+          <t>Milky Way Chocolate Bar Whipped Nougat | 45g</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
@@ -26543,14 +26543,14 @@
       </c>
       <c r="D1187" t="inlineStr">
         <is>
-          <t>$2.84 per 100g</t>
+          <t>$2.78 per 100g</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Mars Chocolate Bar with Nougat &amp; Caramel | 47g</t>
+          <t>Bounty Milk Chocolate Bar With Coconut | 56g</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
@@ -26565,14 +26565,14 @@
       </c>
       <c r="D1188" t="inlineStr">
         <is>
-          <t>$2.66 per 100g</t>
+          <t>$2.23 per 100g</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Milky Way Chocolate Bar Whipped Nougat | 45g</t>
+          <t>Snickers Chocolate Bar Peanuts Caramel Nougat | 44g</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
@@ -26587,14 +26587,14 @@
       </c>
       <c r="D1189" t="inlineStr">
         <is>
-          <t>$2.78 per 100g</t>
+          <t>$2.84 per 100g</t>
         </is>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>Mars Raspberry Smash Flavoured Chocolate Bar | 47g</t>
+          <t>Twix Milk Chocolate Bar with Caramel Biscuit | 50g</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
@@ -26609,7 +26609,7 @@
       </c>
       <c r="D1190" t="inlineStr">
         <is>
-          <t>$2.66 per 100g</t>
+          <t>$2.50 per 100g</t>
         </is>
       </c>
     </row>
